--- a/SPOTX_Config.xlsx
+++ b/SPOTX_Config.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santhosh Raj\PycharmProjects\Dynamic_ETL_SPOT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550F1371-746C-4550-B7E9-0F9BC53D67FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Source data" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Transformations" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Readme- Source data" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Readme- Transformations" sheetId="4" r:id="rId7"/>
+    <sheet name="Source data" sheetId="1" r:id="rId1"/>
+    <sheet name="Transformations" sheetId="2" r:id="rId2"/>
+    <sheet name="Readme- Source data" sheetId="3" r:id="rId3"/>
+    <sheet name="Readme- Transformations" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="42">
   <si>
     <t>Object Name</t>
   </si>
@@ -138,30 +147,34 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>### This Project is to perform the ETL dynamically driven by the excel configuration.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="&quot;Helvetica Neue&quot;"/>
     </font>
@@ -171,7 +184,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -181,7 +194,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -195,56 +214,40 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -434,26 +437,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.57"/>
-    <col customWidth="1" min="2" max="2" width="22.71"/>
-    <col customWidth="1" min="3" max="3" width="78.14"/>
-    <col customWidth="1" min="4" max="4" width="22.0"/>
+    <col min="1" max="1" width="20.54296875" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" customWidth="1"/>
+    <col min="3" max="3" width="78.08984375" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -482,28 +488,29 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.57"/>
-    <col customWidth="1" min="2" max="3" width="30.0"/>
-    <col customWidth="1" min="4" max="4" width="22.71"/>
-    <col customWidth="1" min="5" max="5" width="23.14"/>
-    <col customWidth="1" min="6" max="6" width="130.57"/>
+    <col min="1" max="1" width="20.54296875" customWidth="1"/>
+    <col min="2" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="22.7265625" customWidth="1"/>
+    <col min="5" max="5" width="23.08984375" customWidth="1"/>
+    <col min="6" max="6" width="130.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -523,7 +530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -543,7 +550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -563,7 +570,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -583,7 +590,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -603,7 +610,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -623,7 +630,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -643,7 +650,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
@@ -663,7 +670,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -683,7 +690,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
@@ -703,7 +710,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>30</v>
       </c>
@@ -723,7 +730,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>31</v>
       </c>
@@ -743,7 +750,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>33</v>
       </c>
@@ -760,10 +767,10 @@
         <v>33</v>
       </c>
       <c r="F13" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>35</v>
       </c>
@@ -783,7 +790,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
@@ -803,7 +810,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
@@ -823,7 +830,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>38</v>
       </c>
@@ -843,7 +850,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>39</v>
       </c>
@@ -863,7 +870,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>40</v>
       </c>
@@ -884,66 +891,76 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="C3:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="3">
+    <row r="3" spans="3:6" ht="15.75" customHeight="1">
       <c r="F3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="3:6" ht="15.75" customHeight="1">
       <c r="F4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" spans="3:6" ht="15.75" customHeight="1">
       <c r="C5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" spans="3:6" ht="15.75" customHeight="1">
       <c r="C6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="3:6" ht="15.75" customHeight="1">
       <c r="C7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8">
+    <row r="8" spans="3:6" ht="15.75" customHeight="1">
       <c r="C8" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" spans="3:6" ht="15.75" customHeight="1">
       <c r="C9" s="3"/>
     </row>
-    <row r="10">
+    <row r="10" spans="3:6" ht="15.75" customHeight="1">
       <c r="C10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" spans="3:6" ht="15.75" customHeight="1">
       <c r="C11" s="3"/>
     </row>
-    <row r="12">
+    <row r="12" spans="3:6" ht="15.75" customHeight="1">
       <c r="C12" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>